--- a/hypatia/examples/Planning_teaching/sets/global.xlsx
+++ b/hypatia/examples/Planning_teaching/sets/global.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{46DC28F1-8408-4275-A816-F6E488DFF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AE82F9-4F7E-4B41-8DD9-68C9F24FF200}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{46DC28F1-8408-4275-A816-F6E488DFF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D5A2EE-E123-45D8-80D5-E85249342809}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="-14280" windowWidth="21600" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>Year</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>Hydro Power Plant</t>
+  </si>
+  <si>
+    <t>PV_PP</t>
+  </si>
+  <si>
+    <t>Photovoltaic Power Plant</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers_glob" displayName="Carriers_glob" ref="A28:D33" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A28:D33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers_glob" displayName="Carriers_glob" ref="A29:D34" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A29:D34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Carrier" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Carr_name" dataDxfId="18"/>
@@ -1033,8 +1039,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Technologies_glob" displayName="Technologies_glob" ref="A14:E25" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A14:E25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Technologies_glob" displayName="Technologies_glob" ref="A14:E26" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A14:E26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Technology" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tech_name" dataDxfId="8"/>
@@ -1047,8 +1053,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Timesteps" displayName="Timesteps" ref="A36:C60" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A36:C60" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Timesteps" displayName="Timesteps" ref="A37:C61" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A37:C61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Timeslice" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Timeslice_name" dataDxfId="1"/>
@@ -1335,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8790"/>
+  <dimension ref="A1:I8791"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,10 +1595,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -1605,13 +1611,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>106</v>
+      <c r="A20" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>107</v>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1623,13 +1629,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>86</v>
@@ -1640,10 +1646,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -1656,11 +1662,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>72</v>
+      <c r="A23" s="1" t="s">
+        <v>80</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>57</v>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -1673,14 +1679,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
+      <c r="A24" s="8" t="s">
+        <v>72</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
+      <c r="B24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>86</v>
@@ -1690,14 +1696,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>71</v>
+      <c r="A25" s="1" t="s">
+        <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>79</v>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>86</v>
@@ -1707,140 +1713,146 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1.1415525114155251E-4</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C38" s="12">
         <v>1.1415525114155251E-4</v>
       </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1848,10 +1860,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1859,33 +1871,33 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="12">
         <v>1.1415525114155251E-4</v>
       </c>
-      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="12">
         <v>1.1415525114155251E-4</v>
       </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1893,10 +1905,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1904,10 +1916,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1915,10 +1927,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1926,10 +1938,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1937,10 +1949,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1948,10 +1960,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1959,10 +1971,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1970,10 +1982,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1981,10 +1993,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="12">
         <v>1.1415525114155251E-4</v>
@@ -1992,10 +2004,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2003,10 +2015,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2014,10 +2026,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2025,10 +2037,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2036,10 +2048,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2047,10 +2059,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2058,10 +2070,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="12">
         <v>1.1415525114155251E-4</v>
@@ -2069,19 +2081,25 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="12">
         <v>1.1415525114155251E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="1">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1.1415525114155251E-4</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
@@ -45727,6 +45745,11 @@
       <c r="A8790" s="7"/>
       <c r="B8790" s="7"/>
       <c r="C8790" s="7"/>
+    </row>
+    <row r="8791" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8791" s="7"/>
+      <c r="B8791" s="7"/>
+      <c r="C8791" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -45744,6 +45767,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2977e41d46172cd803c1822de8b16011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a438185f7997b459ba86a7b75ed1fe6" ns2:_="" ns3:_="">
     <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
@@ -45966,22 +46004,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400CE890-4FAA-43FF-AB05-78D100D91AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82347752-6D50-4565-8A47-C3BD006EDCEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E4097F-0872-49BB-AF59-CF19646E4432}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45998,21 +46038,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82347752-6D50-4565-8A47-C3BD006EDCEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400CE890-4FAA-43FF-AB05-78D100D91AC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/hypatia/examples/Planning_teaching/sets/global.xlsx
+++ b/hypatia/examples/Planning_teaching/sets/global.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{46DC28F1-8408-4275-A816-F6E488DFF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1439A3A-7E25-4D19-8F45-64C89BA535A2}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{46DC28F1-8408-4275-A816-F6E488DFF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C97B70-1E8A-4F2C-83D5-938E92FCA558}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1490" yWindow="1490" windowWidth="14380" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6500" yWindow="1700" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
@@ -559,12 +559,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1055,7 +1051,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Timeslice" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Timeslice_name" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Timeslice_fraction" dataDxfId="0">
-      <calculatedColumnFormula>1/8760</calculatedColumnFormula>
+      <calculatedColumnFormula>0.000114155251141553*365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1339,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2031,7 @@
         <v>23</v>
       </c>
       <c r="C61" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666803E-2</v>
       </c>
       <c r="E61" s="9"/>
     </row>
@@ -2047,7 +2043,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2058,7 +2054,7 @@
         <v>25</v>
       </c>
       <c r="C63" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2069,7 +2065,7 @@
         <v>26</v>
       </c>
       <c r="C64" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2080,7 +2076,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
       <c r="E65" s="9"/>
     </row>
@@ -2092,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2103,7 +2099,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2114,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2125,7 +2121,7 @@
         <v>31</v>
       </c>
       <c r="C69" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2136,7 +2132,7 @@
         <v>32</v>
       </c>
       <c r="C70" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2147,7 +2143,7 @@
         <v>33</v>
       </c>
       <c r="C71" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2158,7 +2154,7 @@
         <v>34</v>
       </c>
       <c r="C72" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2169,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2180,7 +2176,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2191,7 +2187,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2202,7 +2198,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2213,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="C77" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2224,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="C78" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -2235,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="C79" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2246,7 +2242,7 @@
         <v>42</v>
       </c>
       <c r="C80" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -2257,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -2268,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="C82" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -2279,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="C83" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -2290,7 +2286,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="11">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1666666666666845E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2552,6 +2548,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e">
@@ -2568,15 +2573,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2599,6 +2595,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400CE890-4FAA-43FF-AB05-78D100D91AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82347752-6D50-4565-8A47-C3BD006EDCEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2607,12 +2611,4 @@
     <ds:schemaRef ds:uri="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400CE890-4FAA-43FF-AB05-78D100D91AC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>